--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_15-28.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_15-28.xlsx
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بادي سبلاش يارا </t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -1676,13 +1679,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1702,17 +1705,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1720,7 +1723,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1728,17 +1731,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1746,7 +1749,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1754,17 +1757,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1772,7 +1775,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1780,17 +1783,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1798,7 +1801,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1806,17 +1809,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1824,7 +1827,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1832,13 +1835,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1850,7 +1853,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1858,13 +1861,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1876,7 +1879,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1884,13 +1887,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1902,7 +1905,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1910,17 +1913,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1928,7 +1931,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1936,17 +1939,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1962,13 +1965,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1976,37 +1979,63 @@
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
-      <c r="K48" s="10">
-        <v>2627.8299999999999</v>
-      </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" ht="17.25" customHeight="1">
-      <c t="s" r="A49" s="11">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
+        <v>80</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
         <v>81</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c t="s" r="F49" s="12">
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>45</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c t="s" r="N48" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="K49" s="10">
+        <v>2722.8299999999999</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="11">
         <v>82</v>
       </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-      <c t="s" r="I49" s="14">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c t="s" r="F50" s="12">
         <v>83</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c t="s" r="I50" s="14">
+        <v>84</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="146">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2146,10 +2175,13 @@
     <mergeCell ref="B47:G47"/>
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:N50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
